--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WeiMasterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE43F25-D1AF-4882-B303-9BDCDD6E807F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630F4D5-38A7-414B-B4E7-A141562FD5E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D4629C23-6BD8-4C36-BFC5-85F6F2931123}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Andere Algorithmen zu implementieren</t>
   </si>
   <si>
-    <t>Evalution von Ergebnissen</t>
-  </si>
-  <si>
     <t>Oktober</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Vortragen</t>
+  </si>
+  <si>
+    <t>Evalution der Ergebnise</t>
   </si>
 </sst>
 </file>
@@ -149,28 +149,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD099AAC-0F5B-474D-9ACA-525940A7EB21}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +506,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,80 +519,84 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="5"/>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
